--- a/xs-op/src/main/resources/场地运营.xlsx
+++ b/xs-op/src/main/resources/场地运营.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17580" yWindow="460" windowWidth="22300" windowHeight="27360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="运营场地" sheetId="1" r:id="rId1"/>
@@ -27,153 +27,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="11">
   <si>
     <t>场地编号</t>
   </si>
   <si>
     <t>运营人员</t>
-    <rPh sb="0" eb="1">
-      <t>yun ying</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ren yuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁弘扬</t>
+  </si>
+  <si>
+    <t>史文敏</t>
+  </si>
+  <si>
+    <t>陈国彬</t>
+  </si>
+  <si>
+    <t>卢银林</t>
   </si>
   <si>
     <t>王鑫</t>
-    <rPh sb="0" eb="1">
-      <t>wang xin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王鑫</t>
-    <rPh sb="0" eb="1">
-      <t>wang cxin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢银林</t>
-    <rPh sb="0" eb="1">
-      <t>lu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yin lin</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史文敏</t>
-    <rPh sb="0" eb="1">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>wen</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>min</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲁弘扬</t>
-    <rPh sb="0" eb="1">
-      <t>lu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hong yang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李耀祖</t>
-    <rPh sb="0" eb="1">
-      <t>li</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>yao zu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>王继涛</t>
-    <rPh sb="0" eb="1">
-      <t>wang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ji tao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蓝贤贵</t>
-    <rPh sb="0" eb="1">
-      <t>lan</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gui</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>魏豪</t>
-    <rPh sb="0" eb="1">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王继涛</t>
-    <rPh sb="0" eb="1">
-      <t>wang ji tao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王继涛</t>
-    <rPh sb="0" eb="1">
-      <t>wang ji t</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>党峰峰</t>
-    <rPh sb="0" eb="1">
-      <t>dang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>feng feng</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈国彬</t>
-    <rPh sb="0" eb="1">
-      <t>chen</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>guo bin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王鑫</t>
-    <rPh sb="0" eb="1">
-      <t>wag x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -224,7 +110,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -240,18 +126,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -285,6 +171,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -299,22 +198,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,19 +501,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B438"/>
+  <dimension ref="A1:B422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -623,7 +522,7 @@
         <v>3100004</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -631,7 +530,7 @@
         <v>3100054</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -639,7 +538,7 @@
         <v>3100012</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -647,7 +546,7 @@
         <v>3100019</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -655,7 +554,7 @@
         <v>3100041</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -663,7 +562,7 @@
         <v>3100052</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -671,7 +570,7 @@
         <v>3100021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -679,7 +578,7 @@
         <v>3100002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -687,15 +586,15 @@
         <v>3100027</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>3100016</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -703,7 +602,7 @@
         <v>3100046</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -711,7 +610,7 @@
         <v>3100026</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -719,7 +618,7 @@
         <v>3100044</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -727,7 +626,7 @@
         <v>3100055</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -735,7 +634,7 @@
         <v>3100042</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -743,7 +642,7 @@
         <v>3100030</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -751,7 +650,7 @@
         <v>3100045</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -759,7 +658,7 @@
         <v>3100015</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -767,7 +666,7 @@
         <v>3100049</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -775,7 +674,7 @@
         <v>3100037</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -783,7 +682,7 @@
         <v>3100038</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -791,7 +690,7 @@
         <v>3100050</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -799,7 +698,7 @@
         <v>3100053</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -807,7 +706,7 @@
         <v>3100024</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -815,7 +714,7 @@
         <v>3100029</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -823,7 +722,7 @@
         <v>3100051</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -831,7 +730,7 @@
         <v>3100006</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -839,7 +738,7 @@
         <v>3100014</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -847,7 +746,7 @@
         <v>3100013</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -855,7 +754,7 @@
         <v>3100028</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -863,7 +762,7 @@
         <v>3100039</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -871,7 +770,7 @@
         <v>3100018</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -879,7 +778,7 @@
         <v>3100056</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -887,7 +786,7 @@
         <v>3201004</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -895,7 +794,7 @@
         <v>3201001</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -903,7 +802,7 @@
         <v>3201010</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -911,7 +810,7 @@
         <v>3201006</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -919,7 +818,7 @@
         <v>3201008</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -927,15 +826,15 @@
         <v>3201009</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="A41" s="5">
         <v>3202001</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -943,7 +842,7 @@
         <v>3200010</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -951,7 +850,7 @@
         <v>3205006</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -959,23 +858,23 @@
         <v>3205002</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="A45" s="5">
         <v>3205005</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="A46" s="5">
         <v>3205003</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -983,7 +882,7 @@
         <v>3310001</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -991,7 +890,7 @@
         <v>3301013</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -999,7 +898,7 @@
         <v>3301015</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -1007,7 +906,7 @@
         <v>3301019</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -1015,7 +914,7 @@
         <v>3301001</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -1023,7 +922,7 @@
         <v>3301016</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -1031,7 +930,7 @@
         <v>3301006</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -1039,23 +938,23 @@
         <v>3301012</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="A55" s="5">
         <v>3301004</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="A56" s="5">
         <v>3301003</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -1063,7 +962,7 @@
         <v>3301018</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -1071,23 +970,23 @@
         <v>3301017</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="A59" s="5">
         <v>3301007</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="A60" s="5">
         <v>3301002</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -1095,7 +994,7 @@
         <v>3303004</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -1103,7 +1002,7 @@
         <v>2201008</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -1111,15 +1010,15 @@
         <v>2201003</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="A64" s="5">
         <v>4201001</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -1127,7 +1026,7 @@
         <v>2201004</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -1135,7 +1034,7 @@
         <v>2201002</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -1143,7 +1042,7 @@
         <v>2201007</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -1151,7 +1050,7 @@
         <v>2702001</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -1159,15 +1058,15 @@
         <v>1100067</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="A70" s="5">
         <v>1100005</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>14</v>
+      <c r="B70" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -1175,7 +1074,7 @@
         <v>1100071</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -1183,7 +1082,7 @@
         <v>1100092</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -1191,7 +1090,7 @@
         <v>1100019</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -1199,7 +1098,7 @@
         <v>1100090</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -1207,7 +1106,7 @@
         <v>1100011</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -1215,7 +1114,7 @@
         <v>1100048</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -1223,7 +1122,7 @@
         <v>1100093</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -1231,7 +1130,7 @@
         <v>1100091</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -1239,7 +1138,7 @@
         <v>1100027</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -1247,7 +1146,7 @@
         <v>1100078</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -1255,15 +1154,15 @@
         <v>1100020</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="3">
+      <c r="A82" s="5">
         <v>1100003</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>2</v>
+      <c r="B82" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -1271,7 +1170,7 @@
         <v>1100017</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -1279,7 +1178,7 @@
         <v>1100029</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -1287,7 +1186,7 @@
         <v>1100004</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -1295,7 +1194,7 @@
         <v>1100009</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -1303,7 +1202,7 @@
         <v>1100089</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -1311,7 +1210,7 @@
         <v>1100010</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -1319,7 +1218,7 @@
         <v>1100046</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -1327,7 +1226,7 @@
         <v>1100068</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -1335,7 +1234,7 @@
         <v>1100045</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -1343,7 +1242,7 @@
         <v>1100006</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -1351,7 +1250,7 @@
         <v>1100032</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -1359,7 +1258,7 @@
         <v>1100059</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -1367,7 +1266,7 @@
         <v>1100023</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -1375,7 +1274,7 @@
         <v>1100087</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -1383,7 +1282,7 @@
         <v>1100034</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -1391,7 +1290,7 @@
         <v>1100062</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -1399,7 +1298,7 @@
         <v>1100038</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -1407,7 +1306,7 @@
         <v>1100050</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -1415,7 +1314,7 @@
         <v>1100070</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -1423,7 +1322,7 @@
         <v>1100081</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -1431,7 +1330,7 @@
         <v>1100069</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -1439,7 +1338,7 @@
         <v>1100073</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -1447,7 +1346,7 @@
         <v>1100064</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -1455,7 +1354,7 @@
         <v>1100082</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -1463,7 +1362,7 @@
         <v>1100066</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -1471,7 +1370,7 @@
         <v>1100033</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -1479,7 +1378,7 @@
         <v>1100088</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -1487,7 +1386,7 @@
         <v>1100074</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -1495,7 +1394,7 @@
         <v>1100036</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -1503,7 +1402,7 @@
         <v>1100058</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
@@ -1511,7 +1410,7 @@
         <v>1100072</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -1519,7 +1418,7 @@
         <v>1100021</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -1527,7 +1426,7 @@
         <v>1100065</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -1535,7 +1434,7 @@
         <v>1100080</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -1543,7 +1442,7 @@
         <v>1100002</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -1551,7 +1450,7 @@
         <v>1100063</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -1559,7 +1458,7 @@
         <v>1100040</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -1567,7 +1466,7 @@
         <v>1100051</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -1575,7 +1474,7 @@
         <v>1100035</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -1583,7 +1482,7 @@
         <v>1100077</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -1591,7 +1490,7 @@
         <v>1100053</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -1599,7 +1498,7 @@
         <v>1100061</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
@@ -1607,7 +1506,7 @@
         <v>1100060</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -1615,7 +1514,7 @@
         <v>1100031</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
@@ -1623,7 +1522,7 @@
         <v>1100042</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
@@ -1631,7 +1530,7 @@
         <v>1100076</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -1639,7 +1538,7 @@
         <v>1100044</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -1647,7 +1546,7 @@
         <v>1100022</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
@@ -1655,7 +1554,7 @@
         <v>1200002</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -1663,7 +1562,7 @@
         <v>1200003</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -1671,7 +1570,7 @@
         <v>1200004</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -1679,7 +1578,7 @@
         <v>1200001</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -1687,7 +1586,7 @@
         <v>1200005</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
@@ -1695,7 +1594,7 @@
         <v>3714001</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
@@ -1703,7 +1602,7 @@
         <v>3701002</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
@@ -1711,7 +1610,7 @@
         <v>3702001</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
@@ -1719,7 +1618,7 @@
         <v>1401001</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
@@ -1727,7 +1626,7 @@
         <v>1401002</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -1735,7 +1634,7 @@
         <v>3203001</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
@@ -1743,7 +1642,7 @@
         <v>3121001</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
@@ -1751,7 +1650,7 @@
         <v>3001001</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
@@ -1759,7 +1658,7 @@
         <v>1730001</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
@@ -1767,7 +1666,7 @@
         <v>4101002</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
@@ -1775,7 +1674,7 @@
         <v>4101001</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
@@ -1783,7 +1682,7 @@
         <v>2102001</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
@@ -1791,7 +1690,7 @@
         <v>2401005</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
@@ -1799,15 +1698,15 @@
         <v>2401006</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A150" s="3">
+      <c r="A150" s="5">
         <v>2401012</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
@@ -1815,7 +1714,7 @@
         <v>2401009</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
@@ -1823,7 +1722,7 @@
         <v>2401001</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
@@ -1831,7 +1730,7 @@
         <v>2410001</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
@@ -1839,7 +1738,7 @@
         <v>3403003</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
@@ -1847,7 +1746,7 @@
         <v>3403026</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
@@ -1855,7 +1754,7 @@
         <v>3403023</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
@@ -1863,7 +1762,7 @@
         <v>3403020</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
@@ -1871,7 +1770,7 @@
         <v>3403028</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
@@ -1879,7 +1778,7 @@
         <v>3403004</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
@@ -1887,7 +1786,7 @@
         <v>3403022</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
@@ -1895,7 +1794,7 @@
         <v>3403008</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
@@ -1903,7 +1802,7 @@
         <v>3403019</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
@@ -1911,7 +1810,7 @@
         <v>3403030</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
@@ -1919,7 +1818,7 @@
         <v>3403007</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
@@ -1927,7 +1826,7 @@
         <v>3403029</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
@@ -1935,7 +1834,7 @@
         <v>3403021</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
@@ -1943,7 +1842,7 @@
         <v>3403014</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
@@ -1951,7 +1850,7 @@
         <v>3403006</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
@@ -1959,7 +1858,7 @@
         <v>3403027</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
@@ -1967,7 +1866,7 @@
         <v>3403010</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
@@ -1975,7 +1874,7 @@
         <v>3404009</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
@@ -1983,7 +1882,7 @@
         <v>3403011</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
@@ -1991,7 +1890,7 @@
         <v>1604001</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
@@ -1999,7 +1898,7 @@
         <v>1601002</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
@@ -2007,7 +1906,7 @@
         <v>1601001</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
@@ -2015,7 +1914,7 @@
         <v>1601003</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
@@ -2023,7 +1922,7 @@
         <v>3502001</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
@@ -2031,7 +1930,7 @@
         <v>3502002</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
@@ -2039,7 +1938,7 @@
         <v>3505001</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
@@ -2047,7 +1946,7 @@
         <v>2501008</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
@@ -2055,7 +1954,7 @@
         <v>2501031</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
@@ -2063,7 +1962,7 @@
         <v>2501018</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
@@ -2071,7 +1970,7 @@
         <v>2501029</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.15">
@@ -2079,7 +1978,7 @@
         <v>2501016</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
@@ -2087,7 +1986,7 @@
         <v>2501039</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.15">
@@ -2095,7 +1994,7 @@
         <v>2501034</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.15">
@@ -2103,7 +2002,7 @@
         <v>2501001</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
@@ -2111,7 +2010,7 @@
         <v>2501032</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.15">
@@ -2119,7 +2018,7 @@
         <v>2501006</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.15">
@@ -2127,7 +2026,7 @@
         <v>2501035</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.15">
@@ -2135,7 +2034,7 @@
         <v>2501038</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.15">
@@ -2143,7 +2042,7 @@
         <v>2501037</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.15">
@@ -2151,7 +2050,7 @@
         <v>1402001</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.15">
@@ -2189,7 +2088,7 @@
         <v>2601018</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.15">
@@ -2197,7 +2096,7 @@
         <v>2601020</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.15">
@@ -2205,7 +2104,7 @@
         <v>2601008</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.15">
@@ -2213,7 +2112,7 @@
         <v>2601014</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.15">
@@ -2221,7 +2120,7 @@
         <v>2601017</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.15">
@@ -2229,7 +2128,7 @@
         <v>2601019</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.15">
@@ -2237,7 +2136,7 @@
         <v>2601013</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.15">
@@ -2245,7 +2144,7 @@
         <v>2601003</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.15">
@@ -2253,7 +2152,7 @@
         <v>2601021</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.15">
@@ -2261,7 +2160,7 @@
         <v>2601005</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.15">
@@ -2269,7 +2168,7 @@
         <v>2601002</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.15">
@@ -2277,7 +2176,7 @@
         <v>2601011</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.15">
@@ -2285,7 +2184,7 @@
         <v>2601015</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.15">
@@ -2293,7 +2192,7 @@
         <v>2601004</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.15">
@@ -2301,7 +2200,7 @@
         <v>2601007</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.15">
@@ -2309,7 +2208,7 @@
         <v>2601006</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.15">
@@ -2317,7 +2216,7 @@
         <v>2601012</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.15">
@@ -2325,7 +2224,7 @@
         <v>2601010</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.15">
@@ -2333,7 +2232,7 @@
         <v>1100094</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.15">
@@ -2341,7 +2240,7 @@
         <v>1100095</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.15">
@@ -2349,7 +2248,7 @@
         <v>1100096</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.15">
@@ -2357,7 +2256,7 @@
         <v>1100097</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.15">
@@ -2365,7 +2264,7 @@
         <v>1100098</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.15">
@@ -2373,7 +2272,7 @@
         <v>1100099</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.15">
@@ -2381,7 +2280,7 @@
         <v>1100100</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.15">
@@ -2389,7 +2288,7 @@
         <v>2501040</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.15">
@@ -2397,7 +2296,7 @@
         <v>3100058</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.15">
@@ -2405,7 +2304,7 @@
         <v>2501041</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.15">
@@ -2413,7 +2312,7 @@
         <v>2501042</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.15">
@@ -2421,7 +2320,7 @@
         <v>3204002</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="17" x14ac:dyDescent="0.15">
@@ -2429,7 +2328,7 @@
         <v>1100101</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.15">
@@ -2437,7 +2336,7 @@
         <v>1100102</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.15">
@@ -2445,7 +2344,7 @@
         <v>1100103</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.15">
@@ -2453,7 +2352,7 @@
         <v>1100104</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.15">
@@ -2461,7 +2360,7 @@
         <v>1100105</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.15">
@@ -2469,7 +2368,7 @@
         <v>3100059</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.15">
@@ -2477,7 +2376,7 @@
         <v>2601016</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.15">
@@ -2485,7 +2384,7 @@
         <v>1100106</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.15">
@@ -2493,796 +2392,573 @@
         <v>1100107</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A238" s="5"/>
-      <c r="B238" s="5"/>
+      <c r="A238" s="1">
+        <v>4101003</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A239" s="5"/>
-      <c r="B239" s="5"/>
+      <c r="A239" s="1">
+        <v>1200006</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A240" s="5"/>
-      <c r="B240" s="5"/>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A241" s="5"/>
-      <c r="B241" s="5"/>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A242" s="5"/>
-      <c r="B242" s="5"/>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A243" s="5"/>
-      <c r="B243" s="5"/>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A244" s="5"/>
-      <c r="B244" s="5"/>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A245" s="5"/>
-      <c r="B245" s="5"/>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A246" s="5"/>
-      <c r="B246" s="5"/>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A247" s="5"/>
-      <c r="B247" s="5"/>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A248" s="5"/>
-      <c r="B248" s="5"/>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A249" s="5"/>
-      <c r="B249" s="5"/>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A250" s="5"/>
-      <c r="B250" s="5"/>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A251" s="5"/>
-      <c r="B251" s="5"/>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A252" s="5"/>
-      <c r="B252" s="5"/>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A253" s="5"/>
-      <c r="B253" s="5"/>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A254" s="5"/>
-      <c r="B254" s="5"/>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A255" s="5"/>
-      <c r="B255" s="5"/>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A256" s="5"/>
-      <c r="B256" s="5"/>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A257" s="5"/>
-      <c r="B257" s="5"/>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A258" s="5"/>
-      <c r="B258" s="5"/>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A259" s="5"/>
-      <c r="B259" s="5"/>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A260" s="5"/>
-      <c r="B260" s="5"/>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A261" s="5"/>
-      <c r="B261" s="5"/>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A262" s="5"/>
-      <c r="B262" s="5"/>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A263" s="5"/>
-      <c r="B263" s="5"/>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A264" s="5"/>
-      <c r="B264" s="5"/>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A265" s="5"/>
-      <c r="B265" s="5"/>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A266" s="5"/>
-      <c r="B266" s="5"/>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A267" s="5"/>
-      <c r="B267" s="5"/>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A268" s="5"/>
-      <c r="B268" s="5"/>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A269" s="5"/>
-      <c r="B269" s="5"/>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A270" s="5"/>
-      <c r="B270" s="5"/>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A271" s="5"/>
-      <c r="B271" s="5"/>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A272" s="5"/>
-      <c r="B272" s="5"/>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A273" s="5"/>
-      <c r="B273" s="5"/>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A274" s="5"/>
-      <c r="B274" s="5"/>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A275" s="5"/>
-      <c r="B275" s="5"/>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A276" s="5"/>
-      <c r="B276" s="5"/>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A277" s="5"/>
-      <c r="B277" s="5"/>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A278" s="5"/>
-      <c r="B278" s="5"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A279" s="5"/>
-      <c r="B279" s="5"/>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A280" s="5"/>
-      <c r="B280" s="5"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A281" s="5"/>
-      <c r="B281" s="5"/>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A282" s="5"/>
-      <c r="B282" s="5"/>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A283" s="5"/>
-      <c r="B283" s="5"/>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A284" s="5"/>
-      <c r="B284" s="5"/>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A285" s="5"/>
-      <c r="B285" s="5"/>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A286" s="5"/>
-      <c r="B286" s="5"/>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A287" s="5"/>
-      <c r="B287" s="5"/>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A288" s="5"/>
-      <c r="B288" s="5"/>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A289" s="5"/>
-      <c r="B289" s="5"/>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A290" s="5"/>
-      <c r="B290" s="5"/>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A291" s="5"/>
-      <c r="B291" s="5"/>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A292" s="5"/>
-      <c r="B292" s="5"/>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A293" s="5"/>
-      <c r="B293" s="5"/>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A294" s="5"/>
-      <c r="B294" s="5"/>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A295" s="5"/>
-      <c r="B295" s="5"/>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A296" s="5"/>
-      <c r="B296" s="5"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A297" s="5"/>
-      <c r="B297" s="5"/>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A298" s="5"/>
-      <c r="B298" s="5"/>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A299" s="5"/>
-      <c r="B299" s="5"/>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A300" s="5"/>
-      <c r="B300" s="5"/>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A301" s="5"/>
-      <c r="B301" s="5"/>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A302" s="5"/>
-      <c r="B302" s="5"/>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A303" s="5"/>
-      <c r="B303" s="5"/>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A304" s="5"/>
-      <c r="B304" s="5"/>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A305" s="5"/>
-      <c r="B305" s="5"/>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A306" s="5"/>
-      <c r="B306" s="5"/>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A307" s="5"/>
-      <c r="B307" s="5"/>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A308" s="5"/>
-      <c r="B308" s="5"/>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A309" s="5"/>
-      <c r="B309" s="5"/>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A310" s="5"/>
-      <c r="B310" s="5"/>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A311" s="5"/>
-      <c r="B311" s="5"/>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A312" s="5"/>
-      <c r="B312" s="5"/>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A313" s="5"/>
-      <c r="B313" s="5"/>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A314" s="5"/>
-      <c r="B314" s="5"/>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A315" s="5"/>
-      <c r="B315" s="5"/>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A316" s="5"/>
-      <c r="B316" s="5"/>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A317" s="5"/>
-      <c r="B317" s="5"/>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A318" s="5"/>
-      <c r="B318" s="5"/>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A319" s="5"/>
-      <c r="B319" s="5"/>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A320" s="5"/>
-      <c r="B320" s="5"/>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A321" s="5"/>
-      <c r="B321" s="5"/>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A322" s="5"/>
-      <c r="B322" s="5"/>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A323" s="5"/>
-      <c r="B323" s="5"/>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A324" s="5"/>
-      <c r="B324" s="5"/>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A325" s="5"/>
-      <c r="B325" s="5"/>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A326" s="5"/>
-      <c r="B326" s="5"/>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A327" s="5"/>
-      <c r="B327" s="5"/>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A328" s="5"/>
-      <c r="B328" s="5"/>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A329" s="5"/>
-      <c r="B329" s="5"/>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A330" s="5"/>
-      <c r="B330" s="5"/>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A331" s="5"/>
-      <c r="B331" s="5"/>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A332" s="5"/>
-      <c r="B332" s="5"/>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A333" s="5"/>
-      <c r="B333" s="5"/>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A334" s="5"/>
-      <c r="B334" s="5"/>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A335" s="5"/>
-      <c r="B335" s="5"/>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A336" s="5"/>
-      <c r="B336" s="5"/>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A337" s="5"/>
-      <c r="B337" s="5"/>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A338" s="5"/>
-      <c r="B338" s="5"/>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A339" s="5"/>
-      <c r="B339" s="5"/>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A340" s="5"/>
-      <c r="B340" s="5"/>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A341" s="5"/>
-      <c r="B341" s="5"/>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A342" s="5"/>
-      <c r="B342" s="5"/>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A343" s="5"/>
-      <c r="B343" s="5"/>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A344" s="5"/>
-      <c r="B344" s="5"/>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A345" s="5"/>
-      <c r="B345" s="5"/>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A346" s="5"/>
-      <c r="B346" s="5"/>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A347" s="5"/>
-      <c r="B347" s="5"/>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A348" s="5"/>
-      <c r="B348" s="5"/>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A349" s="5"/>
-      <c r="B349" s="5"/>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A350" s="5"/>
-      <c r="B350" s="5"/>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A351" s="5"/>
-      <c r="B351" s="5"/>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A352" s="5"/>
-      <c r="B352" s="5"/>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A353" s="5"/>
-      <c r="B353" s="5"/>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A354" s="5"/>
-      <c r="B354" s="5"/>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A355" s="5"/>
-      <c r="B355" s="5"/>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A356" s="5"/>
-      <c r="B356" s="5"/>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A357" s="5"/>
-      <c r="B357" s="5"/>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A358" s="5"/>
-      <c r="B358" s="5"/>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A359" s="5"/>
-      <c r="B359" s="5"/>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A360" s="5"/>
-      <c r="B360" s="5"/>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A361" s="5"/>
-      <c r="B361" s="5"/>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A362" s="5"/>
-      <c r="B362" s="5"/>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A363" s="5"/>
-      <c r="B363" s="5"/>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A364" s="5"/>
-      <c r="B364" s="5"/>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A365" s="5"/>
-      <c r="B365" s="5"/>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A366" s="5"/>
-      <c r="B366" s="5"/>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A367" s="5"/>
-      <c r="B367" s="5"/>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A368" s="5"/>
-      <c r="B368" s="5"/>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A369" s="5"/>
-      <c r="B369" s="5"/>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A370" s="5"/>
-      <c r="B370" s="5"/>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A371" s="5"/>
-      <c r="B371" s="5"/>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A372" s="5"/>
-      <c r="B372" s="5"/>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A373" s="5"/>
-      <c r="B373" s="5"/>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A374" s="5"/>
-      <c r="B374" s="5"/>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A375" s="5"/>
-      <c r="B375" s="5"/>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A376" s="5"/>
-      <c r="B376" s="5"/>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A377" s="5"/>
-      <c r="B377" s="5"/>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A378" s="5"/>
-      <c r="B378" s="5"/>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A379" s="5"/>
-      <c r="B379" s="5"/>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A380" s="5"/>
-      <c r="B380" s="5"/>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A381" s="5"/>
-      <c r="B381" s="5"/>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A382" s="5"/>
-      <c r="B382" s="5"/>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A383" s="5"/>
-      <c r="B383" s="5"/>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A384" s="5"/>
-      <c r="B384" s="5"/>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A385" s="5"/>
-      <c r="B385" s="5"/>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A386" s="5"/>
-      <c r="B386" s="5"/>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A387" s="5"/>
-      <c r="B387" s="5"/>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A388" s="5"/>
-      <c r="B388" s="5"/>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A389" s="5"/>
-      <c r="B389" s="5"/>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A390" s="5"/>
-      <c r="B390" s="5"/>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A391" s="5"/>
-      <c r="B391" s="5"/>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A392" s="5"/>
-      <c r="B392" s="5"/>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A393" s="5"/>
-      <c r="B393" s="5"/>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A394" s="5"/>
-      <c r="B394" s="5"/>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A395" s="5"/>
-      <c r="B395" s="5"/>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A396" s="5"/>
-      <c r="B396" s="5"/>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A397" s="5"/>
-      <c r="B397" s="5"/>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A398" s="5"/>
-      <c r="B398" s="5"/>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A399" s="5"/>
-      <c r="B399" s="5"/>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A400" s="5"/>
-      <c r="B400" s="5"/>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A401" s="5"/>
-      <c r="B401" s="5"/>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A402" s="5"/>
-      <c r="B402" s="5"/>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A403" s="5"/>
-      <c r="B403" s="5"/>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A404" s="5"/>
-      <c r="B404" s="5"/>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A405" s="5"/>
-      <c r="B405" s="5"/>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A406" s="5"/>
-      <c r="B406" s="5"/>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A407" s="5"/>
-      <c r="B407" s="5"/>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A408" s="5"/>
-      <c r="B408" s="5"/>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A409" s="5"/>
-      <c r="B409" s="5"/>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A410" s="5"/>
-      <c r="B410" s="5"/>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A411" s="5"/>
-      <c r="B411" s="5"/>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A412" s="5"/>
-      <c r="B412" s="5"/>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A413" s="5"/>
-      <c r="B413" s="5"/>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A414" s="5"/>
-      <c r="B414" s="5"/>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A415" s="5"/>
-      <c r="B415" s="5"/>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A416" s="5"/>
-      <c r="B416" s="5"/>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A417" s="5"/>
-      <c r="B417" s="5"/>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A418" s="5"/>
-      <c r="B418" s="5"/>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A419" s="5"/>
-      <c r="B419" s="5"/>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A420" s="5"/>
-      <c r="B420" s="5"/>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A421" s="5"/>
-      <c r="B421" s="5"/>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A422" s="5"/>
-      <c r="B422" s="5"/>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A423" s="1"/>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A424" s="1"/>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A425" s="1"/>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A426" s="1"/>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A427" s="1"/>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A428" s="1"/>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A429" s="1"/>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A430" s="1"/>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A431" s="1"/>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A433" s="1"/>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A434" s="1"/>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A435" s="1"/>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A436" s="1"/>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A437" s="1"/>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A438" s="1"/>
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" s="1"/>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302" s="1"/>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303" s="1"/>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304" s="1"/>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" s="1"/>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" s="1"/>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311" s="1"/>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312" s="1"/>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A313" s="1"/>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A315" s="1"/>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316" s="1"/>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A318" s="1"/>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A319" s="1"/>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A320" s="1"/>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A321" s="1"/>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A324" s="1"/>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A327" s="1"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A328" s="1"/>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A329" s="1"/>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A330" s="1"/>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A331" s="1"/>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A332" s="1"/>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A333" s="1"/>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A334" s="1"/>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A335" s="1"/>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A338" s="1"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A341" s="1"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A342" s="1"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A343" s="1"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A344" s="1"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A345" s="1"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A346" s="1"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A348" s="1"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A349" s="1"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A350" s="1"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A351" s="1"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A352" s="1"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A353" s="1"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A354" s="1"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A355" s="1"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A357" s="1"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A358" s="1"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A359" s="1"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A360" s="1"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A361" s="1"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A362" s="1"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A363" s="1"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A364" s="1"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A365" s="1"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A366" s="1"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A367" s="1"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A369" s="1"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A370" s="1"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A371" s="1"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372" s="1"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A373" s="1"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A374" s="1"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A375" s="1"/>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A376" s="1"/>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A377" s="1"/>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A378" s="1"/>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A379" s="1"/>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A380" s="1"/>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A381" s="1"/>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A382" s="1"/>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A383" s="1"/>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A384" s="1"/>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A385" s="1"/>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A387" s="1"/>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A388" s="1"/>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A389" s="1"/>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A390" s="1"/>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A391" s="1"/>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A392" s="1"/>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A394" s="1"/>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A395" s="1"/>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A396" s="1"/>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A397" s="1"/>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A399" s="1"/>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A400" s="1"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A401" s="1"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A403" s="1"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A405" s="1"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A406" s="1"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A407" s="1"/>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A408" s="1"/>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A409" s="1"/>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A410" s="1"/>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A411" s="1"/>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A412" s="1"/>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A413" s="1"/>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A415" s="1"/>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A416" s="1"/>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A417" s="1"/>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A419" s="1"/>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A420" s="1"/>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A421" s="1"/>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A422" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
